--- a/program.xlsx
+++ b/program.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2425-unibo-mldm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2526-unibo-mldm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B5218F7-D860-4D89-86F8-A9F4710F23DA}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E786AB-5EA5-413A-BD9F-04A9477D2AEF}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15990" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AA2425" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -509,20 +512,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="13" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="13.1796875" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.90625" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -553,11 +556,11 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
-        <v>45553</v>
+        <v>45559</v>
       </c>
       <c r="B2" s="8">
         <f>WEEKDAY(A2)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>25</v>
@@ -582,11 +585,11 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <f>A2+7</f>
-        <v>45560</v>
+        <v>45566</v>
       </c>
       <c r="B3" s="8">
         <f t="shared" ref="B3:B15" si="0">WEEKDAY(A3)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>25</v>
@@ -611,11 +614,11 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A15" si="1">A3+7</f>
-        <v>45567</v>
+        <v>45573</v>
       </c>
       <c r="B4" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>25</v>
@@ -640,11 +643,11 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <f t="shared" si="1"/>
-        <v>45574</v>
+        <v>45580</v>
       </c>
       <c r="B5" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>25</v>
@@ -669,11 +672,11 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <f t="shared" si="1"/>
-        <v>45581</v>
+        <v>45587</v>
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>25</v>
@@ -698,11 +701,11 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <f t="shared" si="1"/>
-        <v>45588</v>
+        <v>45594</v>
       </c>
       <c r="B7" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>25</v>
@@ -727,11 +730,11 @@
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
         <f t="shared" si="1"/>
-        <v>45595</v>
+        <v>45601</v>
       </c>
       <c r="B8" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>25</v>
@@ -754,11 +757,11 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="18">
         <f t="shared" si="1"/>
-        <v>45602</v>
+        <v>45608</v>
       </c>
       <c r="B9" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>25</v>
@@ -783,11 +786,11 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
         <f t="shared" si="1"/>
-        <v>45609</v>
+        <v>45615</v>
       </c>
       <c r="B10" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>25</v>
@@ -812,11 +815,11 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <f t="shared" si="1"/>
-        <v>45616</v>
+        <v>45622</v>
       </c>
       <c r="B11" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>25</v>
@@ -841,11 +844,11 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="18">
         <f t="shared" si="1"/>
-        <v>45623</v>
+        <v>45629</v>
       </c>
       <c r="B12" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>25</v>
@@ -870,11 +873,11 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="18">
         <f>A12+7</f>
-        <v>45630</v>
+        <v>45636</v>
       </c>
       <c r="B13" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>25</v>
@@ -899,11 +902,11 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="18">
         <f t="shared" si="1"/>
-        <v>45637</v>
+        <v>45643</v>
       </c>
       <c r="B14" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>25</v>
@@ -928,11 +931,11 @@
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18">
         <f t="shared" si="1"/>
-        <v>45644</v>
+        <v>45650</v>
       </c>
       <c r="B15" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="8"/>

--- a/program.xlsx
+++ b/program.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/teaching-bigdata/AA2526-unibo-mldm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E786AB-5EA5-413A-BD9F-04A9477D2AEF}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_F25DC773A252ABDACC10480B991D78805BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69C0621B-3DAF-4BAE-BB9C-873FC485E9EA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AA2425" sheetId="1" r:id="rId1"/>
+    <sheet name="AA2526" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,15 +29,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>Data preprocessing</t>
   </si>
@@ -54,12 +51,6 @@
     <t>(Deep) neural networks</t>
   </si>
   <si>
-    <t>Intro + CRISP-DM + Lab 00</t>
-  </si>
-  <si>
-    <t>Business Understanding + Data understanding</t>
-  </si>
-  <si>
     <t>Lab: Data understanding + Housing</t>
   </si>
   <si>
@@ -118,6 +109,21 @@
   </si>
   <si>
     <t>Fairness + Summing up</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Intro + CRISP-DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Lab 00</t>
+  </si>
+  <si>
+    <t>Business Understanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Data understanding</t>
   </si>
 </sst>
 </file>
@@ -173,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,49 +191,32 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -245,6 +234,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,414 +503,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="13" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.90625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>17</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
         <v>45559</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <f>WEEKDAY(A2)-1</f>
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12">
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
         <f>SUM($F$2:F2)/$F$17</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <f>A2+7</f>
         <v>45566</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <f t="shared" ref="B3:B15" si="0">WEEKDAY(A3)-1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="9">
-        <v>2</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="C3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
         <f>SUM($F$2:F3)/$F$17</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <f t="shared" ref="A4:A15" si="1">A3+7</f>
         <v>45573</v>
       </c>
-      <c r="B4" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="9">
-        <v>2</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="B4" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
         <f>SUM($F$2:F4)/$F$17</f>
         <v>0.25</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <f t="shared" si="1"/>
         <v>45580</v>
       </c>
-      <c r="B5" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="B5" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
         <f>SUM($F$2:F5)/$F$17</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <f t="shared" si="1"/>
         <v>45587</v>
       </c>
-      <c r="B6" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="9">
-        <v>2</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
         <f>SUM($F$2:F6)/$F$17</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <f t="shared" si="1"/>
         <v>45594</v>
       </c>
-      <c r="B7" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="9">
-        <v>2</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
         <f>SUM($F$2:F7)/$F$17</f>
         <v>0.5</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <f t="shared" si="1"/>
         <v>45601</v>
       </c>
-      <c r="B8" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>25</v>
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="12">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4">
         <f>SUM($F$2:F8)/$F$17</f>
         <v>0.5</v>
       </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <f t="shared" si="1"/>
         <v>45608</v>
       </c>
-      <c r="B9" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="12">
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
         <f>SUM($F$2:F9)/$F$17</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <f t="shared" si="1"/>
         <v>45615</v>
       </c>
-      <c r="B10" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
         <f>SUM($F$2:F10)/$F$17</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <f t="shared" si="1"/>
         <v>45622</v>
       </c>
-      <c r="B11" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="9">
-        <v>2</v>
-      </c>
-      <c r="G11" s="12">
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
         <f>SUM($F$2:F11)/$F$17</f>
         <v>0.75</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <f t="shared" si="1"/>
         <v>45629</v>
       </c>
-      <c r="B12" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="9">
-        <v>2</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
         <f>SUM($F$2:F12)/$F$17</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
         <f>A12+7</f>
         <v>45636</v>
       </c>
-      <c r="B13" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="9">
-        <v>2</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
         <f>SUM($F$2:F13)/$F$17</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <f t="shared" si="1"/>
         <v>45643</v>
       </c>
-      <c r="B14" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="7">
         <v>2</v>
       </c>
       <c r="G14" s="4">
@@ -925,46 +926,45 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
         <f t="shared" si="1"/>
         <v>45650</v>
       </c>
-      <c r="B15" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6" t="s">
-        <v>13</v>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="G15" s="4">
         <f>SUM($F$2:F15)/$F$17</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="6">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="5">
         <f>SUM(F2:F14)</f>
         <v>24</v>
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E17" s="11" t="s">
-        <v>21</v>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F17" s="1">
         <v>24</v>
